--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="29">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -37,124 +37,70 @@
     <t>Exclusions</t>
   </si>
   <si>
+    <t>Single Normal *</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Couple Meal</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>No Ariana</t>
+  </si>
+  <si>
+    <t>Or Grande</t>
+  </si>
+  <si>
+    <t>Couple Normal *</t>
+  </si>
+  <si>
+    <t>Three Normal *</t>
+  </si>
+  <si>
+    <t>Four Normal *</t>
+  </si>
+  <si>
+    <t>Five Normal *</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Six Meal</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Jalapenoes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Six Normal *</t>
+  </si>
+  <si>
+    <t>Meal Type : Standard  Route: 1</t>
+  </si>
+  <si>
     <t>Single Meal</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Fish once a week and no tough meat</t>
-  </si>
-  <si>
-    <t>Mushrooms</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Single Normal *</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Couple Meal</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>No Ariana</t>
-  </si>
-  <si>
-    <t>Or Grande</t>
-  </si>
-  <si>
-    <t>No cake</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-  <si>
-    <t>Couple Normal *</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Three Normal *</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Four Normal *</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Five Meal</t>
-  </si>
-  <si>
-    <t>No Meat</t>
-  </si>
-  <si>
-    <t>Five Normal *</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Six Meal</t>
-  </si>
-  <si>
-    <t>No strawberries</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Jalapenoes</t>
-  </si>
-  <si>
-    <t>Six Normal *</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Meal Type : Standard  Route: 1</t>
-  </si>
-  <si>
     <t>No greens</t>
   </si>
   <si>
     <t>Just one cause I'm a loner</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Meal Type : Standard  Route: 2</t>
   </si>
   <si>
-    <t>no rabbit</t>
-  </si>
-  <si>
     <t>Just boar</t>
-  </si>
-  <si>
-    <t>Three Meal</t>
-  </si>
-  <si>
-    <t>no snakes</t>
   </si>
 </sst>
 </file>
@@ -162,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="182">
+  <fonts count="150">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -391,102 +337,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -794,38 +644,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1048,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1095,105 +913,81 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -1228,71 +1022,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="117" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1387,18 +1173,18 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="22">
         <v>11</v>
@@ -1412,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
         <v>1</v>
@@ -1423,155 +1209,71 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s" s="30">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s" s="31">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s" s="34">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="37">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="38">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s" s="39">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="40">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="41">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="42">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s" s="43">
         <v>21</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s" s="45">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="46">
         <v>1</v>
       </c>
       <c r="D11" t="s" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="48">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s" s="49">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="52">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s" s="53">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s" s="54">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s" s="55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="56">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s" s="57">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="60">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s" s="61">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s" s="62">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="64">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="65">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s" s="66">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="68">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s" s="69">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s" s="70">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s" s="71">
         <v>1</v>
       </c>
     </row>
@@ -1599,165 +1301,165 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="72">
+      <c r="A1" t="s" s="48">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="75">
-        <v>37</v>
+      <c r="B1" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="51">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="76">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="80">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="82">
+      <c r="A2" t="s" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="53">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="54">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="55">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="83">
+      <c r="A3" t="s" s="59">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="84">
+      <c r="B3" t="s" s="60">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="85">
+      <c r="C3" t="s" s="61">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="86">
+      <c r="D3" t="s" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="87">
+      <c r="A4" t="s" s="63">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="64">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="65">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="68">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="69">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="71">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="88">
+      <c r="B6" t="s" s="72">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="89">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s" s="90">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="91">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="92">
+      <c r="C6" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="75">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="76">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="93">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="94">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="95">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="96">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="99">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="100">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s" s="101">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="102">
+      <c r="C7" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="103">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="105">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="106">
+      <c r="A8" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="80">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="81">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="107">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s" s="108">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s" s="109">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="110">
+      <c r="A9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="84">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="111">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="112">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="114">
+      <c r="A10" t="s" s="87">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="88">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="115">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s" s="116">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="118">
+      <c r="A11" t="s" s="91">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="92">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="94">
         <v>1</v>
       </c>
     </row>
@@ -1785,179 +1487,151 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="119">
+      <c r="A1" t="s" s="95">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="121">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="122">
-        <v>42</v>
+      <c r="B1" t="s" s="96">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="98">
+        <v>27</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="123">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="125">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="128">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="129">
+      <c r="A2" t="s" s="99">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="101">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="105">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="130">
+      <c r="A3" t="s" s="106">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="131">
+      <c r="B3" t="s" s="107">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="132">
+      <c r="C3" t="s" s="108">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="133">
+      <c r="D3" t="s" s="109">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="134">
+      <c r="A4" t="s" s="110">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="135">
+      <c r="B4" t="s" s="111">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="136">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s" s="137">
-        <v>12</v>
+      <c r="C4" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="113">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="138">
+      <c r="A5" t="s" s="114">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="115">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="116">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="117">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="118">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="139">
+      <c r="B6" t="s" s="119">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="142">
+      <c r="C6" t="s" s="120">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="122">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="123">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="124">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="126">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="143">
+      <c r="B8" t="s" s="127">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="130">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="144">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s" s="145">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="146">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="147">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="150">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s" s="151">
+      <c r="B9" t="s" s="131">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="152">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s" s="153">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="154">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="155">
+      <c r="C9" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="134">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="156">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="158">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s" s="159">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s" s="160">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="162">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s" s="163">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s" s="164">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="166">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s" s="167">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s" s="168">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="169">
+      <c r="B10" t="s" s="135">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="136">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="137">
         <v>1</v>
       </c>
     </row>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -43,6 +43,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>Couple Meal</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>No Ariana</t>
+  </si>
+  <si>
+    <t>Or Grande</t>
+  </si>
+  <si>
     <t>Couple Normal *</t>
   </si>
   <si>
@@ -73,6 +85,9 @@
     <t>Six Normal *</t>
   </si>
   <si>
+    <t>Thu Oct 2016 17:48:40</t>
+  </si>
+  <si>
     <t>Meal Type : Standard  Route: 1</t>
   </si>
   <si>
@@ -86,12 +101,6 @@
   </si>
   <si>
     <t>Meal Type : Standard  Route: 2</t>
-  </si>
-  <si>
-    <t>Couple Meal</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Just boar</t>
@@ -102,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="146">
+  <fonts count="150">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -200,6 +209,22 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -844,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -895,41 +920,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -952,11 +972,17 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -964,49 +990,46 @@
     <xf numFmtId="0" fontId="66" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1029,11 +1052,17 @@
     <xf numFmtId="0" fontId="109" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
@@ -1041,34 +1070,43 @@
     <xf numFmtId="0" fontId="117" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1158,18 +1196,18 @@
         <v>9</v>
       </c>
       <c r="B5" t="s" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s" s="23">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="25">
         <v>8</v>
@@ -1183,7 +1221,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="29">
         <v>8</v>
@@ -1197,10 +1235,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="33">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s" s="34">
         <v>1</v>
@@ -1211,16 +1249,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="38">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s" s="39">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1228,18 +1266,38 @@
         <v>18</v>
       </c>
       <c r="B10" t="s" s="41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="42">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="43">
-        <v>1</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="44">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="45">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="48">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1261,171 +1319,177 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="44">
+      <c r="A1" t="s" s="49">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="46">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="47">
-        <v>19</v>
+      <c r="B1" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="51">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="52">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="51">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="52">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="54">
+      <c r="A2" t="s" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="55">
+      <c r="A3" t="s" s="60">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="56">
+      <c r="B3" t="s" s="61">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="57">
+      <c r="C3" t="s" s="62">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="58">
+      <c r="D3" t="s" s="63">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="59">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s" s="60">
+      <c r="A4" t="s" s="64">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="65">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="66">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="68">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="69">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="70">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="72">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="73">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="76">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="61">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="62">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="63">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="64">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="65">
+      <c r="B7" t="s" s="77">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="80">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="81">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="85">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="88">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="89">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="92">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="66">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="67">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s" s="68">
+      <c r="B11" t="s" s="93">
         <v>8</v>
       </c>
-      <c r="C6" t="s" s="69">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="71">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s" s="72">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="75">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="76">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="77">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="79">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s" s="80">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="81">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="83">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s" s="84">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="87">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s" s="88">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="90">
-        <v>1</v>
+      <c r="C11" t="s" s="94">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="96">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1447,157 +1511,163 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="91">
+      <c r="A1" t="s" s="97">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="92">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="94">
+      <c r="B1" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="99">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="101">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="103">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="104">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="105">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="108">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="109">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="110">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="112">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="113">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="116">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="117">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="118">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="120">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="121">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="124">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="125">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="128">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="129">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="133">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="134">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="137">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="140">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="95">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="96">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="99">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="102">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="103">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="104">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="106">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="107">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="108">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="110">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s" s="111">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s" s="112">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s" s="113">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="114">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="115">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="118">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="119">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="120">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="122">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s" s="123">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="126">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="127">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="128">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="130">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="131">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="133">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -9,12 +9,13 @@
     <sheet name="ChefReports Route - 0" r:id="rId3" sheetId="1"/>
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
+    <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -37,127 +38,37 @@
     <t>Exclusions</t>
   </si>
   <si>
-    <t>Single Meal</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Fish once a week and no tough meat</t>
-  </si>
-  <si>
-    <t>Mushrooms</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>No Nuts</t>
-  </si>
-  <si>
-    <t>Cashews</t>
-  </si>
-  <si>
     <t>Single Normal *</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Couple Meal</t>
-  </si>
-  <si>
-    <t>Raspberries</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>No Ariana</t>
-  </si>
-  <si>
-    <t>Or Grande</t>
-  </si>
-  <si>
-    <t>No cake</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
+    <t>0</t>
   </si>
   <si>
     <t>Couple Normal *</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Three Normal *</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>Four Normal *</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Five Normal *</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Six Meal</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No Meat</t>
-  </si>
-  <si>
-    <t>No strawberries</t>
   </si>
   <si>
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Fri Oct 2016 10:14:18</t>
+    <t>Fri Oct 2016 13:59:37</t>
   </si>
   <si>
     <t>Meal Type : Standard  Route: 1</t>
   </si>
   <si>
-    <t>Just one cause I'm a loner</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Meal Type : Standard  Route: 2</t>
   </si>
   <si>
-    <t>no rabbit</t>
-  </si>
-  <si>
-    <t>Just boar</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Three Meal</t>
+    <t>Meal Type : Standard  Route: 3</t>
   </si>
 </sst>
 </file>
@@ -165,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="186">
+  <fonts count="173">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -362,166 +273,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -709,22 +460,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -861,6 +596,145 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1067,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1114,66 +988,26 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1181,55 +1015,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1257,6 +1087,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
@@ -1287,41 +1192,26 @@
     <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="146" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1419,60 +1309,60 @@
         <v>8</v>
       </c>
       <c r="C4" t="s" s="18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="21">
         <v>8</v>
       </c>
       <c r="C5" t="s" s="22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s" s="23">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="25">
         <v>8</v>
       </c>
       <c r="C6" t="s" s="26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s" s="27">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="29">
         <v>8</v>
       </c>
       <c r="C7" t="s" s="30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s" s="31">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s" s="34">
         <v>1</v>
@@ -1483,167 +1373,27 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="37">
         <v>8</v>
       </c>
       <c r="C9" t="s" s="38">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s" s="39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="40">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="42">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s" s="43">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="44">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="45">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s" s="46">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s" s="47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="48">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="49">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="50">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s" s="51">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="52">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s" s="53">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s" s="54">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="56">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s" s="57">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="60">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s" s="61">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s" s="65">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="66">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="68">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s" s="69">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s" s="70">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s" s="71">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="72">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s" s="73">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s" s="74">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s" s="75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="76">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s" s="77">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s" s="78">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="80">
-        <v>38</v>
+      <c r="A11" t="s" s="40">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1665,163 +1415,149 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="81">
+      <c r="A1" t="s" s="41">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="82">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="84">
-        <v>39</v>
+      <c r="B1" t="s" s="42">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="44">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="85">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="86">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="87">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="88">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="89">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="90">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="91">
+      <c r="A2" t="s" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="48">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="92">
+      <c r="A3" t="s" s="52">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="93">
+      <c r="B3" t="s" s="53">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="94">
+      <c r="C3" t="s" s="54">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="95">
+      <c r="D3" t="s" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="96">
+      <c r="A4" t="s" s="56">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="97">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="98">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s" s="99">
+      <c r="B4" t="s" s="57">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="60">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="66">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="72">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="100">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="101">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s" s="102">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s" s="105">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="106">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="108">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="109">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="112">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s" s="113">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s" s="114">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="115">
+      <c r="B8" t="s" s="73">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="116">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s" s="117">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="120">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s" s="121">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="124">
-        <v>38</v>
+      <c r="A9" t="s" s="76">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="77">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="78">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="80">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1843,191 +1579,313 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="125">
+      <c r="A1" t="s" s="81">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="128">
-        <v>43</v>
+      <c r="B1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="84">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="132">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="133">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="134">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="135">
+      <c r="A2" t="s" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="90">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="136">
+      <c r="A3" t="s" s="92">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="137">
+      <c r="B3" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="138">
+      <c r="C3" t="s" s="94">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="139">
+      <c r="D3" t="s" s="95">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="140">
+      <c r="A4" t="s" s="96">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="141">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="142">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s" s="143">
+      <c r="B4" t="s" s="97">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="100">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="101">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="104">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="105">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="106">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="108">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="109">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="110">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="112">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="144">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="145">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="148">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="149">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="150">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s" s="151">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="152">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="153">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="156">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s" s="157">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="158">
+      <c r="B8" t="s" s="113">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="114">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="116">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="159">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="160">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="161">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s" s="162">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="164">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s" s="165">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="167">
+      <c r="B9" t="s" s="117">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="119">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="168">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s" s="169">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="170">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="172">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s" s="173">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="176">
-        <v>38</v>
+      <c r="A11" t="s" s="120">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="121">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="123">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="125">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="126">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="128">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="129">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="130">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="133">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="134">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="136">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="137">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="138">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="140">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="141">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="144">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="145">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="146">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="148">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="149">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="150">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="152">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="153">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="154">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="156">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="157">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="160">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -59,7 +59,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 13:59:37</t>
+    <t>Fri Oct 2016 14:07:04</t>
   </si>
   <si>
     <t>Meal Type : Standard  Route: 1</t>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -10,12 +10,14 @@
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
     <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
+    <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
+    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -59,7 +61,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 14:07:04</t>
+    <t>Fri Oct 2016 15:02:13</t>
   </si>
   <si>
     <t>Meal Type : Standard  Route: 1</t>
@@ -70,19 +72,399 @@
   <si>
     <t>Meal Type : Standard  Route: 3</t>
   </si>
+  <si>
+    <t>Meal Type : Standard  Route: 4</t>
+  </si>
+  <si>
+    <t>Meal Type : Standard  Route: 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="173">
+  <fonts count="259">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -941,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1202,6 +1584,150 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1889,4 +2415,332 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="161">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="162">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="163">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="164">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="165">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="166">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="168">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="172">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="173">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="174">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="176">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="177">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="178">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="180">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="181">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="184">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="185">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="186">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="188">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="189">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="190">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="192">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="193">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="196">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="197">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="198">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="200">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="201">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="203">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="204">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="205">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="206">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="207">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="208">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="209">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="210">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="212">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="213">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="214">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="216">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="217">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="220">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="221">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="224">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="225">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="226">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="228">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="229">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="230">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="232">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="233">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="234">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="236">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="237">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="238">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="240">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -11,13 +11,12 @@
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
     <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
     <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
-    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="20">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 15:02:13</t>
+    <t>Fri Oct 2016 15:19:40</t>
   </si>
   <si>
     <t>Meal Type : Standard  Route: 1</t>
@@ -73,10 +72,10 @@
     <t>Meal Type : Standard  Route: 3</t>
   </si>
   <si>
-    <t>Meal Type : Standard  Route: 4</t>
+    <t>Fri Oct 2016 15:19:41</t>
   </si>
   <si>
-    <t>Meal Type : Standard  Route: 5</t>
+    <t>Meal Type : Standard  Route: 4</t>
   </si>
 </sst>
 </file>
@@ -84,200 +83,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="259">
+  <fonts count="216">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1323,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1656,78 +1468,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="191" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -2405,7 +2145,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="160">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="164">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -2569,171 +2309,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="200">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:D11"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="15.625" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="31.25" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="201">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="203">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="204">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="207">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="212">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="213">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="214">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="215">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="216">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="217">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="218">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="220">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="221">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="224">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="225">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="226">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="228">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="229">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="232">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="233">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="236">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="237">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="240">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
+++ b/Application/Reports/Week 9 (03 Oct 2016)/ChefReport - 03 Oct 2016 Week -  9/ChefReports Week - 9 ( Standard ).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="19">
   <si>
     <t>Doorstep Chef - Chef Report 03 Oct 2016</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Six Normal *</t>
   </si>
   <si>
-    <t>Fri Oct 2016 15:19:40</t>
+    <t>Fri Oct 2016 15:24:58</t>
   </si>
   <si>
     <t>Meal Type : Standard  Route: 1</t>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Meal Type : Standard  Route: 3</t>
-  </si>
-  <si>
-    <t>Fri Oct 2016 15:19:41</t>
   </si>
   <si>
     <t>Meal Type : Standard  Route: 4</t>
@@ -2145,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="160">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="164">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -2309,7 +2306,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="200">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
